--- a/05-11-25 to 05-17-25 Madison Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Madison Schedule.xlsx
@@ -2176,7 +2176,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2239,9 +2239,21 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
@@ -2379,11 +2391,7 @@
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
@@ -2409,7 +2417,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2454,7 +2462,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2463,9 +2471,21 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
@@ -2503,7 +2523,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>METRO #887 +RX, GREENFIELD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2552,7 +2572,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>4279 S 76TH STREET</t>
+          <t>METRO #887 +RX, GREENFIELD</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2566,11 +2586,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2609,7 +2625,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Dsf32VPAjE62</t>
+          <t>4279 S 76TH STREET</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2625,7 +2641,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2662,7 +2678,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5:00 am meet for Sarah, Josie &amp; Lori at Hwy N PnR</t>
+          <t>https://goo.gl/maps/Dsf32VPAjE62</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2678,7 +2694,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>PICK #880 +RX, GLENDALE - SILVER SPRING</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2713,7 +2729,11 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>5:00 am meet for Sarah, Josie &amp; Lori at Hwy N PnR</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2727,7 +2747,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>1735 W SILVER SPRING</t>
+          <t>PICK #880 +RX, GLENDALE - SILVER SPRING</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2761,21 +2781,9 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2788,7 +2796,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SUc4yjc7BVT2</t>
+          <t>1735 W SILVER SPRING</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2828,17 +2836,17 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2853,7 +2861,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>4:45 am meet for Sarah &amp; Lori at Hwy N PnR</t>
+          <t>https://goo.gl/maps/SUc4yjc7BVT2</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2893,17 +2901,17 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -2916,7 +2924,11 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>4:45 am meet for Sarah &amp; Lori at Hwy N PnR</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
@@ -2954,12 +2966,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2972,21 +2984,9 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -3024,17 +3024,17 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -3056,18 +3056,17 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Driver 1/2,
-Rx</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -3106,12 +3105,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3139,17 +3138,18 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>Driver 1/2,
+Rx</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -3188,12 +3188,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3221,17 +3221,17 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -3266,12 +3266,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3298,12 +3298,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3355,18 +3355,17 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3388,12 +3387,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3434,17 +3433,18 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -3466,18 +3466,17 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -3512,12 +3511,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3544,17 +3543,18 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
@@ -3593,12 +3593,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3625,12 +3625,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3674,12 +3674,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3707,12 +3707,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3756,12 +3756,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3788,12 +3788,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3837,12 +3837,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3869,12 +3869,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3918,18 +3918,17 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3951,12 +3950,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3988,17 +3987,18 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -4020,12 +4020,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -4057,12 +4057,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4087,9 +4087,21 @@
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
@@ -4112,9 +4124,21 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Tanner</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
@@ -4223,11 +4247,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -4270,7 +4290,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -4315,7 +4335,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>KELLEY #49, WHEELER RD MOBIL, CHERRY VALLEY</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -4369,7 +4389,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>5595 WHEELER RD</t>
+          <t>KELLEY #49, WHEELER RD MOBIL, CHERRY VALLEY</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -4422,7 +4442,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WZCuKHG2n2q</t>
+          <t>5595 WHEELER RD</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4459,7 +4479,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>https://goo.gl/maps/WZCuKHG2n2q</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -4506,7 +4526,11 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -4546,21 +4570,9 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
@@ -4606,15 +4618,19 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -4651,12 +4667,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4708,12 +4724,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4765,12 +4781,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4810,12 +4826,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4855,12 +4871,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4898,8 +4914,16 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">

--- a/05-11-25 to 05-17-25 Madison Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Madison Schedule.xlsx
@@ -2618,7 +2618,8 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+*Until 11:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>

--- a/05-11-25 to 05-17-25 Madison Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Madison Schedule.xlsx
@@ -2592,7 +2592,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>FEW RESETS-</t>
+          <t xml:space="preserve">FEW RESETS-REMAPPED </t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>

--- a/05-11-25 to 05-17-25 Madison Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Madison Schedule.xlsx
@@ -1057,7 +1057,11 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>*Car swap happening at store.  Lori bringing Gray Van, Rockford will take back after the store</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1101,21 +1105,9 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>@ Store, Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
@@ -1198,15 +1190,19 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>@ Store, Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1276,20 +1272,15 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1366,15 +1357,20 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Driver,
+Lexus*</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
@@ -1469,19 +1465,15 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1560,9 +1552,22 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>@ Store,
+Gray Van*</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1693,11 +1698,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5:45 AM START</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -1774,7 +1775,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>5:45 AM START</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1849,7 +1850,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ASCENSION IP CSMM COLUMBIA ST MARY'S WOMEN'S MEDICAL CENTER</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1924,7 +1925,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2323 N LAKE DR</t>
+          <t>ASCENSION IP CSMM COLUMBIA ST MARY'S WOMEN'S MEDICAL CENTER</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -2011,7 +2012,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/86sUJVyjHnUKr7tv8</t>
+          <t>2323 N LAKE DR</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -2089,7 +2090,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Timesheet totals - split Regular location total under Floor - Chemo under Backroom.</t>
+          <t>https://goo.gl/maps/86sUJVyjHnUKr7tv8</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2163,8 +2164,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PARK IN STRUCTURE B 
-AND MEET IN THE LOBBY.</t>
+          <t>Timesheet totals - split Regular location total under Floor - Chemo under Backroom.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2236,7 +2236,12 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PARK IN STRUCTURE B 
+AND MEET IN THE LOBBY.</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -2304,21 +2309,9 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2376,17 +2369,17 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2445,12 +2438,12 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2506,12 +2499,12 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2555,12 +2548,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2608,18 +2601,17 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>@ Store,
-*Until 11:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -2662,17 +2654,18 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+*Until 11:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2725,9 +2718,21 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
@@ -2828,11 +2833,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -2895,7 +2896,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2960,7 +2961,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1360 PLEASANT PRAIRIE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -3018,7 +3019,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12500 AURORA DR,  SUITE 1000</t>
+          <t>AURORA OUTPATIENT RX #1360 PLEASANT PRAIRIE</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -3099,7 +3100,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cBS6XeGsHAkpmwWFA</t>
+          <t>12500 AURORA DR,  SUITE 1000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -3182,7 +3183,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>*IL Office leave time is 4:30 am</t>
+          <t>https://goo.gl/maps/cBS6XeGsHAkpmwWFA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3262,7 +3263,11 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>*IL Office leave time is 4:30 am</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -3338,21 +3343,9 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -3428,9 +3421,21 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
@@ -3585,11 +3590,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
@@ -3668,7 +3669,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3750,7 +3751,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>KELLEY #62, DIXON MOBIL</t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3831,7 +3832,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1300 N GALENA AVE</t>
+          <t>KELLEY #62, DIXON MOBIL</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3912,7 +3913,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
+          <t>1300 N GALENA AVE</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3981,7 +3982,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>https://goo.gl/maps/7zZLAVs6WcQ2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -4051,7 +4052,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:30 am at IL Office </t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -4122,7 +4123,11 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*IL Meet is 5:30 am at IL Office </t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -4178,21 +4183,9 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -4237,15 +4230,19 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -4278,12 +4275,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -4323,12 +4320,12 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -4372,20 +4369,15 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
@@ -4426,17 +4418,18 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Silver Van</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -4473,9 +4466,21 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">

--- a/05-11-25 to 05-17-25 Madison Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Madison Schedule.xlsx
@@ -4374,10 +4374,15 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
@@ -4423,13 +4428,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -4466,21 +4470,9 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">

--- a/05-11-25 to 05-17-25 Madison Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Madison Schedule.xlsx
@@ -4428,14 +4428,10 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
@@ -4470,9 +4466,21 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">

--- a/05-11-25 to 05-17-25 Madison Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,15 +1223,10 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1301,10 +1296,15 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1397,15 +1397,10 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1498,10 +1493,15 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1588,15 +1588,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1659,7 +1654,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1720,10 +1715,16 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1799,16 +1800,10 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1880,10 +1875,14 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1954,12 +1953,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2036,7 +2035,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2118,7 +2117,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2192,7 +2191,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2267,7 +2266,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2324,7 +2323,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2387,21 +2386,9 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2522,7 +2509,11 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2573,7 +2564,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2626,7 +2617,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #415 +RX, WAUKESHA - SUNSET WEST</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2680,7 +2671,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>PICK #415 +RX, WAUKESHA - SUNSET WEST</t>
+          <t>1220 WEST SUNSET DR</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2745,7 +2736,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1220 WEST SUNSET DR</t>
+          <t>https://goo.gl/maps/oRdoVwf2Qut</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2794,7 +2785,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/oRdoVwf2Qut</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2855,7 +2846,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>5:00 am meet for Sarah, Lori &amp; Savannah at Hwy N PnR</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2918,11 +2909,7 @@
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>5:00 am meet for Sarah, Lori &amp; Savannah at Hwy N PnR</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -2982,9 +2969,21 @@
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -3042,17 +3041,18 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver 1/2,
+Rx</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -3123,18 +3123,18 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
           <t>Driver 1/2,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -3206,18 +3206,17 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Driver 1/2,
-Supv Rx</t>
+          <t>w/ Sarah</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -3288,17 +3287,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>w/ Sarah</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -3365,12 +3364,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3456,12 +3455,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3533,12 +3532,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3611,17 +3610,18 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3692,18 +3692,17 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3774,12 +3773,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3855,12 +3854,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3936,12 +3935,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4006,12 +4005,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4075,12 +4074,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4148,12 +4147,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4191,21 +4190,9 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -4294,7 +4281,11 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -4341,7 +4332,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -4395,7 +4386,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #36, LOVES PARK MOBIL</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4444,7 +4435,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>KELLEY #36, LOVES PARK MOBIL</t>
+          <t>6224 N 2ND ST</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4493,7 +4484,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>6224 N 2ND ST</t>
+          <t>https://goo.gl/maps/baMuHHcvqPF2</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4542,7 +4533,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/baMuHHcvqPF2</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4581,11 +4572,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -4638,9 +4625,21 @@
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -4685,19 +4684,15 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -4742,12 +4737,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4799,12 +4794,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4844,12 +4839,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4889,12 +4884,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4934,12 +4929,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4956,43 +4951,6 @@
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/05-11-25 to 05-17-25 Madison Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Madison Schedule.xlsx
@@ -2397,7 +2397,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">

--- a/05-11-25 to 05-17-25 Madison Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Madison Schedule.xlsx
@@ -1079,7 +1079,7 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Store was remapped at the end of last inv, please make sure all new locations &amp; new area for</t>
+          <t>Store was remapped at the end of last inv, please make sure all new locations &amp; new areas for</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>

--- a/05-11-25 to 05-17-25 Madison Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Madison Schedule.xlsx
@@ -4708,7 +4708,11 @@
           <t>Taylor</t>
         </is>
       </c>
-      <c r="W68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>@ Store, Until 11:00</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>

--- a/05-11-25 to 05-17-25 Madison Schedule.xlsx
+++ b/05-11-25 to 05-17-25 Madison Schedule.xlsx
@@ -1903,10 +1903,14 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
@@ -1986,14 +1990,10 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
